--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,12 @@
     <t>['21', '90+3']</t>
   </si>
   <si>
+    <t>['27', '90+1']</t>
+  </si>
+  <si>
+    <t>['21', '88']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -563,6 +569,12 @@
   </si>
   <si>
     <t>['35', '84']</t>
+  </si>
+  <si>
+    <t>['29', '90+5']</t>
+  </si>
+  <si>
+    <t>['82', '90', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1195,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1261,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ2">
         <v>0.86</v>
@@ -1389,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1595,7 +1607,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1676,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1801,7 +1813,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2213,7 +2225,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2419,7 +2431,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2500,7 +2512,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2625,7 +2637,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2703,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
         <v>1.29</v>
@@ -2831,7 +2843,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3243,7 +3255,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3449,7 +3461,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3655,7 +3667,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3861,7 +3873,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4067,7 +4079,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4273,7 +4285,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4479,7 +4491,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4557,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4685,7 +4697,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4763,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4891,7 +4903,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5097,7 +5109,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5509,7 +5521,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5921,7 +5933,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6127,7 +6139,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6333,7 +6345,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6411,7 +6423,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27">
         <v>0.57</v>
@@ -6539,7 +6551,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6823,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6951,7 +6963,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7032,7 +7044,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7157,7 +7169,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7238,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7363,7 +7375,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7775,7 +7787,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7981,7 +7993,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8187,7 +8199,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8268,7 +8280,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8393,7 +8405,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8471,7 +8483,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>0.57</v>
@@ -8680,7 +8692,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -8805,7 +8817,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9011,7 +9023,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9295,7 +9307,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -9423,7 +9435,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9629,7 +9641,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9835,7 +9847,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10247,7 +10259,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10328,7 +10340,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -10453,7 +10465,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10531,7 +10543,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -10740,7 +10752,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -10865,7 +10877,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -10943,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
         <v>0.57</v>
@@ -11277,7 +11289,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11483,7 +11495,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11561,7 +11573,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -11689,7 +11701,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11895,7 +11907,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12101,7 +12113,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12182,7 +12194,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.41</v>
@@ -12388,7 +12400,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ56">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR56">
         <v>1.95</v>
@@ -12513,7 +12525,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12591,7 +12603,7 @@
         <v>0.83</v>
       </c>
       <c r="AP57">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -12925,7 +12937,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13337,7 +13349,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13543,7 +13555,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13621,7 +13633,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13749,7 +13761,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13830,7 +13842,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>1.59</v>
@@ -13955,7 +13967,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14161,7 +14173,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -14239,7 +14251,7 @@
         <v>2.2</v>
       </c>
       <c r="AP65">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ65">
         <v>2</v>
@@ -14367,7 +14379,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14448,7 +14460,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR66">
         <v>1.6</v>
@@ -14573,7 +14585,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14779,7 +14791,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14985,7 +14997,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15191,7 +15203,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15397,7 +15409,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15554,6 +15566,418 @@
       </c>
       <c r="BP71">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7487406</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45618.67708333334</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72">
+        <v>2.5</v>
+      </c>
+      <c r="R72">
+        <v>2.1</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>2.99</v>
+      </c>
+      <c r="V72">
+        <v>2.6</v>
+      </c>
+      <c r="W72">
+        <v>1.46</v>
+      </c>
+      <c r="X72">
+        <v>5.95</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>1.91</v>
+      </c>
+      <c r="AA72">
+        <v>3.4</v>
+      </c>
+      <c r="AB72">
+        <v>3.9</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>7.9</v>
+      </c>
+      <c r="AE72">
+        <v>1.22</v>
+      </c>
+      <c r="AF72">
+        <v>3.35</v>
+      </c>
+      <c r="AG72">
+        <v>2</v>
+      </c>
+      <c r="AH72">
+        <v>1.8</v>
+      </c>
+      <c r="AI72">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.91</v>
+      </c>
+      <c r="AK72">
+        <v>1.22</v>
+      </c>
+      <c r="AL72">
+        <v>1.24</v>
+      </c>
+      <c r="AM72">
+        <v>1.86</v>
+      </c>
+      <c r="AN72">
+        <v>2.29</v>
+      </c>
+      <c r="AO72">
+        <v>1.14</v>
+      </c>
+      <c r="AP72">
+        <v>2.13</v>
+      </c>
+      <c r="AQ72">
+        <v>1.13</v>
+      </c>
+      <c r="AR72">
+        <v>1.68</v>
+      </c>
+      <c r="AS72">
+        <v>1.64</v>
+      </c>
+      <c r="AT72">
+        <v>3.32</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>15</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>2</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>2</v>
+      </c>
+      <c r="BD72">
+        <v>1.51</v>
+      </c>
+      <c r="BE72">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF72">
+        <v>3</v>
+      </c>
+      <c r="BG72">
+        <v>1.32</v>
+      </c>
+      <c r="BH72">
+        <v>2.78</v>
+      </c>
+      <c r="BI72">
+        <v>1.6</v>
+      </c>
+      <c r="BJ72">
+        <v>2.03</v>
+      </c>
+      <c r="BK72">
+        <v>2.07</v>
+      </c>
+      <c r="BL72">
+        <v>1.64</v>
+      </c>
+      <c r="BM72">
+        <v>2.72</v>
+      </c>
+      <c r="BN72">
+        <v>1.33</v>
+      </c>
+      <c r="BO72">
+        <v>3.78</v>
+      </c>
+      <c r="BP72">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7487407</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45618.67708333334</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>79</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>133</v>
+      </c>
+      <c r="P73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q73">
+        <v>3.4</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>2.75</v>
+      </c>
+      <c r="T73">
+        <v>1.31</v>
+      </c>
+      <c r="U73">
+        <v>3.26</v>
+      </c>
+      <c r="V73">
+        <v>2.45</v>
+      </c>
+      <c r="W73">
+        <v>1.51</v>
+      </c>
+      <c r="X73">
+        <v>5.8</v>
+      </c>
+      <c r="Y73">
+        <v>1.12</v>
+      </c>
+      <c r="Z73">
+        <v>3</v>
+      </c>
+      <c r="AA73">
+        <v>3.5</v>
+      </c>
+      <c r="AB73">
+        <v>2.2</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>11</v>
+      </c>
+      <c r="AE73">
+        <v>1.16</v>
+      </c>
+      <c r="AF73">
+        <v>3.9</v>
+      </c>
+      <c r="AG73">
+        <v>1.65</v>
+      </c>
+      <c r="AH73">
+        <v>2.2</v>
+      </c>
+      <c r="AI73">
+        <v>1.57</v>
+      </c>
+      <c r="AJ73">
+        <v>2.25</v>
+      </c>
+      <c r="AK73">
+        <v>1.61</v>
+      </c>
+      <c r="AL73">
+        <v>1.24</v>
+      </c>
+      <c r="AM73">
+        <v>1.34</v>
+      </c>
+      <c r="AN73">
+        <v>1.86</v>
+      </c>
+      <c r="AO73">
+        <v>1.71</v>
+      </c>
+      <c r="AP73">
+        <v>1.63</v>
+      </c>
+      <c r="AQ73">
+        <v>1.88</v>
+      </c>
+      <c r="AR73">
+        <v>1.6</v>
+      </c>
+      <c r="AS73">
+        <v>1.83</v>
+      </c>
+      <c r="AT73">
+        <v>3.43</v>
+      </c>
+      <c r="AU73">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>2</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>15</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>11</v>
+      </c>
+      <c r="BD73">
+        <v>2.57</v>
+      </c>
+      <c r="BE73">
+        <v>8.4</v>
+      </c>
+      <c r="BF73">
+        <v>1.64</v>
+      </c>
+      <c r="BG73">
+        <v>1.17</v>
+      </c>
+      <c r="BH73">
+        <v>3.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.35</v>
+      </c>
+      <c r="BJ73">
+        <v>2.65</v>
+      </c>
+      <c r="BK73">
+        <v>1.67</v>
+      </c>
+      <c r="BL73">
+        <v>2.03</v>
+      </c>
+      <c r="BM73">
+        <v>2.05</v>
+      </c>
+      <c r="BN73">
+        <v>1.59</v>
+      </c>
+      <c r="BO73">
+        <v>2.72</v>
+      </c>
+      <c r="BP73">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['21', '88']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -575,6 +578,9 @@
   </si>
   <si>
     <t>['82', '90', '90+5']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1201,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1401,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1607,7 +1613,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1813,7 +1819,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2225,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2431,7 +2437,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2637,7 +2643,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2843,7 +2849,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3255,7 +3261,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3461,7 +3467,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3667,7 +3673,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3873,7 +3879,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4079,7 +4085,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4285,7 +4291,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4491,7 +4497,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4697,7 +4703,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4903,7 +4909,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5109,7 +5115,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5521,7 +5527,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5933,7 +5939,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6139,7 +6145,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6345,7 +6351,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6551,7 +6557,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6963,7 +6969,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7169,7 +7175,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7375,7 +7381,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7787,7 +7793,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7993,7 +7999,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8199,7 +8205,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8405,7 +8411,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8817,7 +8823,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9023,7 +9029,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9435,7 +9441,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9641,7 +9647,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9847,7 +9853,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10259,7 +10265,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10465,7 +10471,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10877,7 +10883,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11289,7 +11295,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11495,7 +11501,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11701,7 +11707,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11907,7 +11913,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12113,7 +12119,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12525,7 +12531,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12937,7 +12943,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13349,7 +13355,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13555,7 +13561,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13761,7 +13767,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13967,7 +13973,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14173,7 +14179,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -14379,7 +14385,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14585,7 +14591,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14791,7 +14797,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14997,7 +15003,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15203,7 +15209,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15409,7 +15415,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15615,7 +15621,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15821,7 +15827,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -15978,6 +15984,212 @@
       </c>
       <c r="BP73">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7487405</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45620.42708333334</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q74">
+        <v>2.3</v>
+      </c>
+      <c r="R74">
+        <v>2.25</v>
+      </c>
+      <c r="S74">
+        <v>4.33</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.25</v>
+      </c>
+      <c r="V74">
+        <v>2.63</v>
+      </c>
+      <c r="W74">
+        <v>1.44</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>1.75</v>
+      </c>
+      <c r="AA74">
+        <v>3.7</v>
+      </c>
+      <c r="AB74">
+        <v>4.33</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.2</v>
+      </c>
+      <c r="AF74">
+        <v>4.33</v>
+      </c>
+      <c r="AG74">
+        <v>1.73</v>
+      </c>
+      <c r="AH74">
+        <v>2.08</v>
+      </c>
+      <c r="AI74">
+        <v>1.73</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.2</v>
+      </c>
+      <c r="AM74">
+        <v>1.9</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.53</v>
+      </c>
+      <c r="AS74">
+        <v>1.23</v>
+      </c>
+      <c r="AT74">
+        <v>2.76</v>
+      </c>
+      <c r="AU74">
+        <v>8</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>11</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>24</v>
+      </c>
+      <c r="AZ74">
+        <v>14</v>
+      </c>
+      <c r="BA74">
+        <v>12</v>
+      </c>
+      <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>1.51</v>
+      </c>
+      <c r="BE74">
+        <v>6.45</v>
+      </c>
+      <c r="BF74">
+        <v>3.32</v>
+      </c>
+      <c r="BG74">
+        <v>1.45</v>
+      </c>
+      <c r="BH74">
+        <v>2.61</v>
+      </c>
+      <c r="BI74">
+        <v>1.61</v>
+      </c>
+      <c r="BJ74">
+        <v>2.24</v>
+      </c>
+      <c r="BK74">
+        <v>2</v>
+      </c>
+      <c r="BL74">
+        <v>1.79</v>
+      </c>
+      <c r="BM74">
+        <v>2.58</v>
+      </c>
+      <c r="BN74">
+        <v>1.46</v>
+      </c>
+      <c r="BO74">
+        <v>4.2</v>
+      </c>
+      <c r="BP74">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,21 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['63', '90+5']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['29', '86']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -439,9 +454,6 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -581,6 +593,18 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['40', '65']</t>
+  </si>
+  <si>
+    <t>['18', '24']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1225,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1407,7 +1431,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1488,7 +1512,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1613,7 +1637,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1819,7 +1843,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1897,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2103,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2231,7 +2255,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2309,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2437,7 +2461,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2643,7 +2667,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2724,7 +2748,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2849,7 +2873,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2927,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3133,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>0.57</v>
@@ -3261,7 +3285,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3342,7 +3366,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3467,7 +3491,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3545,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3673,7 +3697,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3754,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3879,7 +3903,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3957,10 +3981,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -4085,7 +4109,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4163,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4291,7 +4315,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4369,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4497,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4703,7 +4727,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4909,7 +4933,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4987,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -5115,7 +5139,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5399,10 +5423,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5527,7 +5551,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5605,10 +5629,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5814,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5939,7 +5963,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6017,7 +6041,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6145,7 +6169,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6223,10 +6247,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6351,7 +6375,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6557,7 +6581,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6969,7 +6993,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7175,7 +7199,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7381,7 +7405,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7462,7 +7486,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -7665,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7793,7 +7817,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7874,7 +7898,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.62</v>
@@ -7999,7 +8023,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8077,10 +8101,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR35">
         <v>2.16</v>
@@ -8205,7 +8229,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8283,7 +8307,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -8411,7 +8435,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8492,7 +8516,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8695,7 +8719,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -8823,7 +8847,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8904,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9029,7 +9053,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9107,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.86</v>
@@ -9441,7 +9465,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9647,7 +9671,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9725,10 +9749,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -9853,7 +9877,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9934,7 +9958,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10137,10 +10161,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10265,7 +10289,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10343,7 +10367,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10471,7 +10495,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10552,7 +10576,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -10755,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.88</v>
@@ -10883,7 +10907,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -10964,7 +10988,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -11295,7 +11319,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11373,7 +11397,7 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11501,7 +11525,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11582,7 +11606,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11707,7 +11731,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11913,7 +11937,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -11994,7 +12018,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12119,7 +12143,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12197,7 +12221,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12403,7 +12427,7 @@
         <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
         <v>1.88</v>
@@ -12531,7 +12555,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12818,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>1.33</v>
@@ -12943,7 +12967,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13021,10 +13045,10 @@
         <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13227,7 +13251,7 @@
         <v>0.4</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -13355,7 +13379,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13433,10 +13457,10 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13561,7 +13585,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13767,7 +13791,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13973,7 +13997,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14051,7 +14075,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>0.57</v>
@@ -14179,7 +14203,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -14260,7 +14284,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR65">
         <v>1.81</v>
@@ -14385,7 +14409,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14591,7 +14615,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14669,10 +14693,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -14797,7 +14821,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14875,10 +14899,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15003,7 +15027,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15081,10 +15105,10 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.92</v>
@@ -15209,7 +15233,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15287,10 +15311,10 @@
         <v>1.83</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR70">
         <v>1.4</v>
@@ -15415,7 +15439,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15493,10 +15517,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15621,7 +15645,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15827,7 +15851,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16033,7 +16057,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16190,6 +16214,1036 @@
       </c>
       <c r="BP74">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7487411</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45625.64583333334</v>
+      </c>
+      <c r="F75">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q75">
+        <v>2.38</v>
+      </c>
+      <c r="R75">
+        <v>2.38</v>
+      </c>
+      <c r="S75">
+        <v>3.75</v>
+      </c>
+      <c r="T75">
+        <v>1.3</v>
+      </c>
+      <c r="U75">
+        <v>3.32</v>
+      </c>
+      <c r="V75">
+        <v>2.39</v>
+      </c>
+      <c r="W75">
+        <v>1.52</v>
+      </c>
+      <c r="X75">
+        <v>5.75</v>
+      </c>
+      <c r="Y75">
+        <v>1.12</v>
+      </c>
+      <c r="Z75">
+        <v>1.85</v>
+      </c>
+      <c r="AA75">
+        <v>3.7</v>
+      </c>
+      <c r="AB75">
+        <v>3.7</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.19</v>
+      </c>
+      <c r="AF75">
+        <v>4.4</v>
+      </c>
+      <c r="AG75">
+        <v>1.6</v>
+      </c>
+      <c r="AH75">
+        <v>2.3</v>
+      </c>
+      <c r="AI75">
+        <v>1.53</v>
+      </c>
+      <c r="AJ75">
+        <v>2.38</v>
+      </c>
+      <c r="AK75">
+        <v>1.3</v>
+      </c>
+      <c r="AL75">
+        <v>1.24</v>
+      </c>
+      <c r="AM75">
+        <v>1.54</v>
+      </c>
+      <c r="AN75">
+        <v>1.43</v>
+      </c>
+      <c r="AO75">
+        <v>1.29</v>
+      </c>
+      <c r="AP75">
+        <v>1.25</v>
+      </c>
+      <c r="AQ75">
+        <v>1.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.68</v>
+      </c>
+      <c r="AS75">
+        <v>1.68</v>
+      </c>
+      <c r="AT75">
+        <v>3.36</v>
+      </c>
+      <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>8</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>10</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>14</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7487413</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45625.67708333334</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>136</v>
+      </c>
+      <c r="P76" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q76">
+        <v>2.5</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>3.6</v>
+      </c>
+      <c r="T76">
+        <v>1.28</v>
+      </c>
+      <c r="U76">
+        <v>3.46</v>
+      </c>
+      <c r="V76">
+        <v>2.32</v>
+      </c>
+      <c r="W76">
+        <v>1.55</v>
+      </c>
+      <c r="X76">
+        <v>5.65</v>
+      </c>
+      <c r="Y76">
+        <v>1.12</v>
+      </c>
+      <c r="Z76">
+        <v>1.95</v>
+      </c>
+      <c r="AA76">
+        <v>3.7</v>
+      </c>
+      <c r="AB76">
+        <v>3.4</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>1.17</v>
+      </c>
+      <c r="AF76">
+        <v>4.6</v>
+      </c>
+      <c r="AG76">
+        <v>1.65</v>
+      </c>
+      <c r="AH76">
+        <v>2.2</v>
+      </c>
+      <c r="AI76">
+        <v>1.57</v>
+      </c>
+      <c r="AJ76">
+        <v>2.25</v>
+      </c>
+      <c r="AK76">
+        <v>1.22</v>
+      </c>
+      <c r="AL76">
+        <v>1.21</v>
+      </c>
+      <c r="AM76">
+        <v>1.74</v>
+      </c>
+      <c r="AN76">
+        <v>2.29</v>
+      </c>
+      <c r="AO76">
+        <v>1.43</v>
+      </c>
+      <c r="AP76">
+        <v>2.13</v>
+      </c>
+      <c r="AQ76">
+        <v>1.38</v>
+      </c>
+      <c r="AR76">
+        <v>1.84</v>
+      </c>
+      <c r="AS76">
+        <v>1.39</v>
+      </c>
+      <c r="AT76">
+        <v>3.23</v>
+      </c>
+      <c r="AU76">
+        <v>13</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>22</v>
+      </c>
+      <c r="AZ76">
+        <v>18</v>
+      </c>
+      <c r="BA76">
+        <v>5</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>7</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7487412</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>137</v>
+      </c>
+      <c r="P77" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q77">
+        <v>2.4</v>
+      </c>
+      <c r="R77">
+        <v>2.38</v>
+      </c>
+      <c r="S77">
+        <v>3.75</v>
+      </c>
+      <c r="T77">
+        <v>1.28</v>
+      </c>
+      <c r="U77">
+        <v>3.42</v>
+      </c>
+      <c r="V77">
+        <v>2.28</v>
+      </c>
+      <c r="W77">
+        <v>1.57</v>
+      </c>
+      <c r="X77">
+        <v>4.95</v>
+      </c>
+      <c r="Y77">
+        <v>1.15</v>
+      </c>
+      <c r="Z77">
+        <v>1.87</v>
+      </c>
+      <c r="AA77">
+        <v>3.22</v>
+      </c>
+      <c r="AB77">
+        <v>3.08</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>13</v>
+      </c>
+      <c r="AE77">
+        <v>1.14</v>
+      </c>
+      <c r="AF77">
+        <v>4.15</v>
+      </c>
+      <c r="AG77">
+        <v>1.53</v>
+      </c>
+      <c r="AH77">
+        <v>2.35</v>
+      </c>
+      <c r="AI77">
+        <v>1.53</v>
+      </c>
+      <c r="AJ77">
+        <v>2.38</v>
+      </c>
+      <c r="AK77">
+        <v>1.22</v>
+      </c>
+      <c r="AL77">
+        <v>1.21</v>
+      </c>
+      <c r="AM77">
+        <v>1.73</v>
+      </c>
+      <c r="AN77">
+        <v>2.29</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
+        <v>2.13</v>
+      </c>
+      <c r="AQ77">
+        <v>1.88</v>
+      </c>
+      <c r="AR77">
+        <v>1.89</v>
+      </c>
+      <c r="AS77">
+        <v>1.77</v>
+      </c>
+      <c r="AT77">
+        <v>3.66</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>2</v>
+      </c>
+      <c r="AX77">
+        <v>9</v>
+      </c>
+      <c r="AY77">
+        <v>13</v>
+      </c>
+      <c r="AZ77">
+        <v>18</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>2.1</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7487414</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.2</v>
+      </c>
+      <c r="T78">
+        <v>1.34</v>
+      </c>
+      <c r="U78">
+        <v>3.1</v>
+      </c>
+      <c r="V78">
+        <v>2.55</v>
+      </c>
+      <c r="W78">
+        <v>1.45</v>
+      </c>
+      <c r="X78">
+        <v>6.25</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>2.44</v>
+      </c>
+      <c r="AA78">
+        <v>3.09</v>
+      </c>
+      <c r="AB78">
+        <v>2.45</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>10</v>
+      </c>
+      <c r="AE78">
+        <v>1.24</v>
+      </c>
+      <c r="AF78">
+        <v>3.85</v>
+      </c>
+      <c r="AG78">
+        <v>1.75</v>
+      </c>
+      <c r="AH78">
+        <v>1.95</v>
+      </c>
+      <c r="AI78">
+        <v>1.67</v>
+      </c>
+      <c r="AJ78">
+        <v>2.1</v>
+      </c>
+      <c r="AK78">
+        <v>1.39</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.43</v>
+      </c>
+      <c r="AN78">
+        <v>1.14</v>
+      </c>
+      <c r="AO78">
+        <v>1.43</v>
+      </c>
+      <c r="AP78">
+        <v>1.38</v>
+      </c>
+      <c r="AQ78">
+        <v>1.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.71</v>
+      </c>
+      <c r="AS78">
+        <v>1.72</v>
+      </c>
+      <c r="AT78">
+        <v>3.43</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>10</v>
+      </c>
+      <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>5</v>
+      </c>
+      <c r="AY78">
+        <v>10</v>
+      </c>
+      <c r="AZ78">
+        <v>18</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7487410</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q79">
+        <v>2.3</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>4.33</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.14</v>
+      </c>
+      <c r="V79">
+        <v>2.45</v>
+      </c>
+      <c r="W79">
+        <v>1.48</v>
+      </c>
+      <c r="X79">
+        <v>5.95</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>1.84</v>
+      </c>
+      <c r="AA79">
+        <v>3.09</v>
+      </c>
+      <c r="AB79">
+        <v>3.29</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>11</v>
+      </c>
+      <c r="AE79">
+        <v>1.22</v>
+      </c>
+      <c r="AF79">
+        <v>4</v>
+      </c>
+      <c r="AG79">
+        <v>1.7</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
+        <v>1.67</v>
+      </c>
+      <c r="AJ79">
+        <v>2.1</v>
+      </c>
+      <c r="AK79">
+        <v>1.21</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.73</v>
+      </c>
+      <c r="AN79">
+        <v>1.57</v>
+      </c>
+      <c r="AO79">
+        <v>0.57</v>
+      </c>
+      <c r="AP79">
+        <v>1.5</v>
+      </c>
+      <c r="AQ79">
+        <v>0.63</v>
+      </c>
+      <c r="AR79">
+        <v>1.35</v>
+      </c>
+      <c r="AS79">
+        <v>1.42</v>
+      </c>
+      <c r="AT79">
+        <v>2.77</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>2</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
   <si>
     <t>['25', '90+2']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1431,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1637,7 +1640,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1843,7 +1846,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2255,7 +2258,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2461,7 +2464,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2539,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ8">
         <v>1.13</v>
@@ -2873,7 +2876,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3160,7 +3163,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ11">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3285,7 +3288,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3363,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -3491,7 +3494,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3697,7 +3700,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3903,7 +3906,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4109,7 +4112,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4315,7 +4318,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4521,7 +4524,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4727,7 +4730,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4933,7 +4936,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5139,7 +5142,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5220,7 +5223,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5551,7 +5554,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5963,7 +5966,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6169,7 +6172,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6375,7 +6378,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6456,7 +6459,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ27">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6581,7 +6584,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6659,7 +6662,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -6993,7 +6996,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7199,7 +7202,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7405,7 +7408,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7817,7 +7820,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7895,7 +7898,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8023,7 +8026,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8229,7 +8232,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8435,7 +8438,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8847,7 +8850,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9053,7 +9056,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9340,7 +9343,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9465,7 +9468,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9671,7 +9674,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9877,7 +9880,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9955,7 +9958,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
         <v>1.88</v>
@@ -10289,7 +10292,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10495,7 +10498,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10907,7 +10910,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11194,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11319,7 +11322,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11525,7 +11528,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11731,7 +11734,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11809,7 +11812,7 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11937,7 +11940,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12143,7 +12146,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12555,7 +12558,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12967,7 +12970,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13254,7 +13257,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13379,7 +13382,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13585,7 +13588,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13997,7 +14000,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14078,7 +14081,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR64">
         <v>1.41</v>
@@ -14409,7 +14412,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14487,7 +14490,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ66">
         <v>1.88</v>
@@ -14615,7 +14618,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14821,7 +14824,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15027,7 +15030,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15233,7 +15236,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15439,7 +15442,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15645,7 +15648,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15851,7 +15854,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16057,7 +16060,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16263,7 +16266,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16469,7 +16472,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16675,7 +16678,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16881,7 +16884,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17087,7 +17090,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17244,6 +17247,212 @@
       </c>
       <c r="BP79">
         <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7487409</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45629.64583333334</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>140</v>
+      </c>
+      <c r="P80" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q80">
+        <v>3.1</v>
+      </c>
+      <c r="R80">
+        <v>2.38</v>
+      </c>
+      <c r="S80">
+        <v>2.75</v>
+      </c>
+      <c r="T80">
+        <v>1.27</v>
+      </c>
+      <c r="U80">
+        <v>3.54</v>
+      </c>
+      <c r="V80">
+        <v>2.27</v>
+      </c>
+      <c r="W80">
+        <v>1.59</v>
+      </c>
+      <c r="X80">
+        <v>5.1</v>
+      </c>
+      <c r="Y80">
+        <v>1.14</v>
+      </c>
+      <c r="Z80">
+        <v>2.75</v>
+      </c>
+      <c r="AA80">
+        <v>3.6</v>
+      </c>
+      <c r="AB80">
+        <v>2.3</v>
+      </c>
+      <c r="AC80">
+        <v>1.01</v>
+      </c>
+      <c r="AD80">
+        <v>13</v>
+      </c>
+      <c r="AE80">
+        <v>1.12</v>
+      </c>
+      <c r="AF80">
+        <v>4.45</v>
+      </c>
+      <c r="AG80">
+        <v>1.53</v>
+      </c>
+      <c r="AH80">
+        <v>2.38</v>
+      </c>
+      <c r="AI80">
+        <v>1.44</v>
+      </c>
+      <c r="AJ80">
+        <v>2.63</v>
+      </c>
+      <c r="AK80">
+        <v>1.61</v>
+      </c>
+      <c r="AL80">
+        <v>1.23</v>
+      </c>
+      <c r="AM80">
+        <v>1.36</v>
+      </c>
+      <c r="AN80">
+        <v>0.86</v>
+      </c>
+      <c r="AO80">
+        <v>0.57</v>
+      </c>
+      <c r="AP80">
+        <v>0.88</v>
+      </c>
+      <c r="AQ80">
+        <v>0.63</v>
+      </c>
+      <c r="AR80">
+        <v>1.62</v>
+      </c>
+      <c r="AS80">
+        <v>1.21</v>
+      </c>
+      <c r="AT80">
+        <v>2.83</v>
+      </c>
+      <c r="AU80">
+        <v>7</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>18</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>6</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>13</v>
+      </c>
+      <c r="BD80">
+        <v>2.33</v>
+      </c>
+      <c r="BE80">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF80">
+        <v>1.76</v>
+      </c>
+      <c r="BG80">
+        <v>1.17</v>
+      </c>
+      <c r="BH80">
+        <v>3.76</v>
+      </c>
+      <c r="BI80">
+        <v>1.36</v>
+      </c>
+      <c r="BJ80">
+        <v>2.61</v>
+      </c>
+      <c r="BK80">
+        <v>2.1</v>
+      </c>
+      <c r="BL80">
+        <v>2.01</v>
+      </c>
+      <c r="BM80">
+        <v>2.06</v>
+      </c>
+      <c r="BN80">
+        <v>1.58</v>
+      </c>
+      <c r="BO80">
+        <v>2.73</v>
+      </c>
+      <c r="BP80">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['18', '39']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -608,6 +611,12 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['11', '76']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1237,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1434,7 +1443,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1640,7 +1649,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1846,7 +1855,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1927,7 +1936,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2258,7 +2267,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2464,7 +2473,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2542,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8">
         <v>1.13</v>
@@ -2751,7 +2760,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2876,7 +2885,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3160,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>0.63</v>
@@ -3288,7 +3297,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3366,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -3494,7 +3503,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3572,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3700,7 +3709,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3781,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3906,7 +3915,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4112,7 +4121,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4193,7 +4202,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4318,7 +4327,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4524,7 +4533,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4730,7 +4739,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4936,7 +4945,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5142,7 +5151,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5429,7 +5438,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5554,7 +5563,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5966,7 +5975,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6172,7 +6181,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6250,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -6378,7 +6387,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6584,7 +6593,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6662,7 +6671,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -6871,7 +6880,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -6996,7 +7005,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7202,7 +7211,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7408,7 +7417,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7489,7 +7498,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -7695,7 +7704,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7820,7 +7829,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7898,7 +7907,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8026,7 +8035,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8232,7 +8241,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8310,7 +8319,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -8438,7 +8447,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8850,7 +8859,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9056,7 +9065,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9468,7 +9477,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9549,7 +9558,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9674,7 +9683,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9880,7 +9889,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9958,7 +9967,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>1.88</v>
@@ -10164,10 +10173,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10292,7 +10301,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10498,7 +10507,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10910,7 +10919,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11322,7 +11331,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11528,7 +11537,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11734,7 +11743,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11812,10 +11821,10 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.54</v>
@@ -11940,7 +11949,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12146,7 +12155,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12558,7 +12567,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12970,7 +12979,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13051,7 +13060,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13382,7 +13391,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13460,7 +13469,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13588,7 +13597,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13669,7 +13678,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.61</v>
@@ -14000,7 +14009,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14412,7 +14421,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14490,7 +14499,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66">
         <v>1.88</v>
@@ -14618,7 +14627,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14824,7 +14833,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14905,7 +14914,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15030,7 +15039,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15108,7 +15117,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15236,7 +15245,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15442,7 +15451,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15648,7 +15657,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15854,7 +15863,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16060,7 +16069,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16141,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.53</v>
@@ -16266,7 +16275,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16347,7 +16356,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.68</v>
@@ -16472,7 +16481,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16678,7 +16687,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16756,7 +16765,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
         <v>1.88</v>
@@ -16884,7 +16893,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17090,7 +17099,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17374,7 +17383,7 @@
         <v>0.57</v>
       </c>
       <c r="AP80">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
         <v>0.63</v>
@@ -17453,6 +17462,418 @@
       </c>
       <c r="BP80">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7487418</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45632.64583333334</v>
+      </c>
+      <c r="F81">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>141</v>
+      </c>
+      <c r="P81" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q81">
+        <v>3.6</v>
+      </c>
+      <c r="R81">
+        <v>2.38</v>
+      </c>
+      <c r="S81">
+        <v>2.5</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3.25</v>
+      </c>
+      <c r="V81">
+        <v>2.5</v>
+      </c>
+      <c r="W81">
+        <v>1.5</v>
+      </c>
+      <c r="X81">
+        <v>5.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.13</v>
+      </c>
+      <c r="Z81">
+        <v>3.5</v>
+      </c>
+      <c r="AA81">
+        <v>3.7</v>
+      </c>
+      <c r="AB81">
+        <v>1.95</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE81">
+        <v>1.19</v>
+      </c>
+      <c r="AF81">
+        <v>4.4</v>
+      </c>
+      <c r="AG81">
+        <v>1.53</v>
+      </c>
+      <c r="AH81">
+        <v>2.38</v>
+      </c>
+      <c r="AI81">
+        <v>1.5</v>
+      </c>
+      <c r="AJ81">
+        <v>2.5</v>
+      </c>
+      <c r="AK81">
+        <v>1.53</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.3</v>
+      </c>
+      <c r="AN81">
+        <v>0.88</v>
+      </c>
+      <c r="AO81">
+        <v>1.5</v>
+      </c>
+      <c r="AP81">
+        <v>1.11</v>
+      </c>
+      <c r="AQ81">
+        <v>1.33</v>
+      </c>
+      <c r="AR81">
+        <v>1.63</v>
+      </c>
+      <c r="AS81">
+        <v>1.66</v>
+      </c>
+      <c r="AT81">
+        <v>3.29</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>4</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+      <c r="BB81">
+        <v>7</v>
+      </c>
+      <c r="BC81">
+        <v>8</v>
+      </c>
+      <c r="BD81">
+        <v>2.22</v>
+      </c>
+      <c r="BE81">
+        <v>8.1</v>
+      </c>
+      <c r="BF81">
+        <v>1.84</v>
+      </c>
+      <c r="BG81">
+        <v>1.21</v>
+      </c>
+      <c r="BH81">
+        <v>3.44</v>
+      </c>
+      <c r="BI81">
+        <v>1.42</v>
+      </c>
+      <c r="BJ81">
+        <v>2.42</v>
+      </c>
+      <c r="BK81">
+        <v>2.2</v>
+      </c>
+      <c r="BL81">
+        <v>1.9</v>
+      </c>
+      <c r="BM81">
+        <v>2.22</v>
+      </c>
+      <c r="BN81">
+        <v>1.5</v>
+      </c>
+      <c r="BO81">
+        <v>2.97</v>
+      </c>
+      <c r="BP81">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7487419</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45632.67708333334</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q82">
+        <v>2.05</v>
+      </c>
+      <c r="R82">
+        <v>2.38</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.3</v>
+      </c>
+      <c r="U82">
+        <v>3.32</v>
+      </c>
+      <c r="V82">
+        <v>2.45</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>6.1</v>
+      </c>
+      <c r="Y82">
+        <v>1.1</v>
+      </c>
+      <c r="Z82">
+        <v>1.55</v>
+      </c>
+      <c r="AA82">
+        <v>4.1</v>
+      </c>
+      <c r="AB82">
+        <v>5.25</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>11</v>
+      </c>
+      <c r="AE82">
+        <v>1.21</v>
+      </c>
+      <c r="AF82">
+        <v>4.2</v>
+      </c>
+      <c r="AG82">
+        <v>1.62</v>
+      </c>
+      <c r="AH82">
+        <v>2.25</v>
+      </c>
+      <c r="AI82">
+        <v>1.73</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>1.19</v>
+      </c>
+      <c r="AL82">
+        <v>1.21</v>
+      </c>
+      <c r="AM82">
+        <v>1.81</v>
+      </c>
+      <c r="AN82">
+        <v>2.13</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1.89</v>
+      </c>
+      <c r="AQ82">
+        <v>1.22</v>
+      </c>
+      <c r="AR82">
+        <v>1.78</v>
+      </c>
+      <c r="AS82">
+        <v>1.27</v>
+      </c>
+      <c r="AT82">
+        <v>3.05</v>
+      </c>
+      <c r="AU82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>7</v>
+      </c>
+      <c r="AY82">
+        <v>7</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>1.31</v>
+      </c>
+      <c r="BE82">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF82">
+        <v>4.05</v>
+      </c>
+      <c r="BG82">
+        <v>1.23</v>
+      </c>
+      <c r="BH82">
+        <v>3.28</v>
+      </c>
+      <c r="BI82">
+        <v>1.44</v>
+      </c>
+      <c r="BJ82">
+        <v>2.35</v>
+      </c>
+      <c r="BK82">
+        <v>1.83</v>
+      </c>
+      <c r="BL82">
+        <v>1.83</v>
+      </c>
+      <c r="BM82">
+        <v>2.29</v>
+      </c>
+      <c r="BN82">
+        <v>1.47</v>
+      </c>
+      <c r="BO82">
+        <v>3.08</v>
+      </c>
+      <c r="BP82">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -17604,22 +17604,22 @@
         <v>3.29</v>
       </c>
       <c r="AU81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW81">
         <v>2</v>
       </c>
       <c r="AX81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA81">
         <v>1</v>
@@ -17816,10 +17816,10 @@
         <v>4</v>
       </c>
       <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
         <v>5</v>
-      </c>
-      <c r="AX82">
-        <v>7</v>
       </c>
       <c r="AY82">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,12 @@
     <t>['18', '39']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -451,9 +457,6 @@
     <t>['7', '44', '83']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['28']</t>
   </si>
   <si>
@@ -617,6 +620,9 @@
   </si>
   <si>
     <t>['11', '76']</t>
+  </si>
+  <si>
+    <t>['29', '53']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1243,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1318,7 +1324,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1443,7 +1449,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1649,7 +1655,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1727,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
         <v>1.88</v>
@@ -1855,7 +1861,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1933,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1.22</v>
@@ -2267,7 +2273,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2348,7 +2354,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2473,7 +2479,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2757,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2885,7 +2891,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3172,7 +3178,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3297,7 +3303,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3378,7 +3384,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3503,7 +3509,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3584,7 +3590,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3709,7 +3715,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3787,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3915,7 +3921,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3993,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4121,7 +4127,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4327,7 +4333,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4533,7 +4539,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4611,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -4739,7 +4745,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4945,7 +4951,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5151,7 +5157,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5232,7 +5238,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ21">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5563,7 +5569,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5641,10 +5647,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5847,7 +5853,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -5975,7 +5981,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6056,7 +6062,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -6181,7 +6187,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6387,7 +6393,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6468,7 +6474,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ27">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6593,7 +6599,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6674,7 +6680,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6877,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29">
         <v>1.22</v>
@@ -7005,7 +7011,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7211,7 +7217,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7289,7 +7295,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -7417,7 +7423,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7829,7 +7835,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8035,7 +8041,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8241,7 +8247,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8447,7 +8453,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8859,7 +8865,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8937,10 +8943,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9065,7 +9071,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9143,10 +9149,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9349,10 +9355,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ41">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9477,7 +9483,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9683,7 +9689,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9889,7 +9895,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10301,7 +10307,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10507,7 +10513,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10588,7 +10594,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -10791,7 +10797,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.88</v>
@@ -10919,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -10997,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ49">
         <v>0.63</v>
@@ -11203,10 +11209,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11331,7 +11337,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11412,7 +11418,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11537,7 +11543,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11743,7 +11749,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11949,7 +11955,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12155,7 +12161,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12567,7 +12573,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12645,10 +12651,10 @@
         <v>0.83</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -12851,7 +12857,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58">
         <v>0.63</v>
@@ -12979,7 +12985,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13057,7 +13063,7 @@
         <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13266,7 +13272,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13391,7 +13397,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13472,7 +13478,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13597,7 +13603,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -14009,7 +14015,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14090,7 +14096,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR64">
         <v>1.41</v>
@@ -14293,7 +14299,7 @@
         <v>2.2</v>
       </c>
       <c r="AP65">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ65">
         <v>1.88</v>
@@ -14421,7 +14427,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14627,7 +14633,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14833,7 +14839,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15039,7 +15045,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15245,7 +15251,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15323,7 +15329,7 @@
         <v>1.83</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.88</v>
@@ -15451,7 +15457,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15532,7 +15538,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15657,7 +15663,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15735,7 +15741,7 @@
         <v>1.14</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -15863,7 +15869,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16069,7 +16075,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16147,7 +16153,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16275,7 +16281,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16481,7 +16487,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16562,7 +16568,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ76">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.84</v>
@@ -16687,7 +16693,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16893,7 +16899,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17099,7 +17105,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17177,7 +17183,7 @@
         <v>0.57</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>0.63</v>
@@ -17386,7 +17392,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR80">
         <v>1.62</v>
@@ -17511,7 +17517,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17717,7 +17723,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -17874,6 +17880,624 @@
       </c>
       <c r="BP82">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7487417</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45634.42708333334</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>111</v>
+      </c>
+      <c r="P83" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>5.5</v>
+      </c>
+      <c r="T83">
+        <v>1.33</v>
+      </c>
+      <c r="U83">
+        <v>3.25</v>
+      </c>
+      <c r="V83">
+        <v>2.5</v>
+      </c>
+      <c r="W83">
+        <v>1.47</v>
+      </c>
+      <c r="X83">
+        <v>5.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.12</v>
+      </c>
+      <c r="Z83">
+        <v>1.5</v>
+      </c>
+      <c r="AA83">
+        <v>4.1</v>
+      </c>
+      <c r="AB83">
+        <v>6</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>11</v>
+      </c>
+      <c r="AE83">
+        <v>1.23</v>
+      </c>
+      <c r="AF83">
+        <v>3.9</v>
+      </c>
+      <c r="AG83">
+        <v>1.67</v>
+      </c>
+      <c r="AH83">
+        <v>2.15</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.91</v>
+      </c>
+      <c r="AK83">
+        <v>1.18</v>
+      </c>
+      <c r="AL83">
+        <v>1.22</v>
+      </c>
+      <c r="AM83">
+        <v>1.81</v>
+      </c>
+      <c r="AN83">
+        <v>2.13</v>
+      </c>
+      <c r="AO83">
+        <v>1.38</v>
+      </c>
+      <c r="AP83">
+        <v>2.22</v>
+      </c>
+      <c r="AQ83">
+        <v>1.22</v>
+      </c>
+      <c r="AR83">
+        <v>1.62</v>
+      </c>
+      <c r="AS83">
+        <v>1.44</v>
+      </c>
+      <c r="AT83">
+        <v>3.06</v>
+      </c>
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>8</v>
+      </c>
+      <c r="AZ83">
+        <v>7</v>
+      </c>
+      <c r="BA83">
+        <v>9</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>11</v>
+      </c>
+      <c r="BD83">
+        <v>1.38</v>
+      </c>
+      <c r="BE83">
+        <v>8.9</v>
+      </c>
+      <c r="BF83">
+        <v>3.56</v>
+      </c>
+      <c r="BG83">
+        <v>1.25</v>
+      </c>
+      <c r="BH83">
+        <v>3.14</v>
+      </c>
+      <c r="BI83">
+        <v>1.47</v>
+      </c>
+      <c r="BJ83">
+        <v>2.29</v>
+      </c>
+      <c r="BK83">
+        <v>1.86</v>
+      </c>
+      <c r="BL83">
+        <v>1.8</v>
+      </c>
+      <c r="BM83">
+        <v>2.36</v>
+      </c>
+      <c r="BN83">
+        <v>1.44</v>
+      </c>
+      <c r="BO83">
+        <v>3.22</v>
+      </c>
+      <c r="BP83">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7487415</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45634.52083333334</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q84">
+        <v>2.5</v>
+      </c>
+      <c r="R84">
+        <v>2.3</v>
+      </c>
+      <c r="S84">
+        <v>3.5</v>
+      </c>
+      <c r="T84">
+        <v>1.29</v>
+      </c>
+      <c r="U84">
+        <v>3.5</v>
+      </c>
+      <c r="V84">
+        <v>2.32</v>
+      </c>
+      <c r="W84">
+        <v>1.55</v>
+      </c>
+      <c r="X84">
+        <v>4.75</v>
+      </c>
+      <c r="Y84">
+        <v>1.15</v>
+      </c>
+      <c r="Z84">
+        <v>1.95</v>
+      </c>
+      <c r="AA84">
+        <v>3.6</v>
+      </c>
+      <c r="AB84">
+        <v>3.5</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>13</v>
+      </c>
+      <c r="AE84">
+        <v>1.17</v>
+      </c>
+      <c r="AF84">
+        <v>4.6</v>
+      </c>
+      <c r="AG84">
+        <v>1.6</v>
+      </c>
+      <c r="AH84">
+        <v>2.3</v>
+      </c>
+      <c r="AI84">
+        <v>1.53</v>
+      </c>
+      <c r="AJ84">
+        <v>2.38</v>
+      </c>
+      <c r="AK84">
+        <v>1.25</v>
+      </c>
+      <c r="AL84">
+        <v>1.23</v>
+      </c>
+      <c r="AM84">
+        <v>1.66</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>0.86</v>
+      </c>
+      <c r="AP84">
+        <v>1.22</v>
+      </c>
+      <c r="AQ84">
+        <v>0.75</v>
+      </c>
+      <c r="AR84">
+        <v>1.62</v>
+      </c>
+      <c r="AS84">
+        <v>1.6</v>
+      </c>
+      <c r="AT84">
+        <v>3.22</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>4</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>13</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>8</v>
+      </c>
+      <c r="BD84">
+        <v>1.63</v>
+      </c>
+      <c r="BE84">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF84">
+        <v>2.62</v>
+      </c>
+      <c r="BG84">
+        <v>1.24</v>
+      </c>
+      <c r="BH84">
+        <v>3.22</v>
+      </c>
+      <c r="BI84">
+        <v>1.47</v>
+      </c>
+      <c r="BJ84">
+        <v>2.29</v>
+      </c>
+      <c r="BK84">
+        <v>1.85</v>
+      </c>
+      <c r="BL84">
+        <v>1.81</v>
+      </c>
+      <c r="BM84">
+        <v>2.35</v>
+      </c>
+      <c r="BN84">
+        <v>1.44</v>
+      </c>
+      <c r="BO84">
+        <v>3.14</v>
+      </c>
+      <c r="BP84">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7487416</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45634.52083333334</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>143</v>
+      </c>
+      <c r="P85" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q85">
+        <v>2.63</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>3.75</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.5</v>
+      </c>
+      <c r="W85">
+        <v>1.5</v>
+      </c>
+      <c r="X85">
+        <v>6</v>
+      </c>
+      <c r="Y85">
+        <v>1.11</v>
+      </c>
+      <c r="Z85">
+        <v>2.05</v>
+      </c>
+      <c r="AA85">
+        <v>3.3</v>
+      </c>
+      <c r="AB85">
+        <v>3.5</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4.2</v>
+      </c>
+      <c r="AG85">
+        <v>1.9</v>
+      </c>
+      <c r="AH85">
+        <v>1.9</v>
+      </c>
+      <c r="AI85">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.32</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.51</v>
+      </c>
+      <c r="AN85">
+        <v>1.5</v>
+      </c>
+      <c r="AO85">
+        <v>0.63</v>
+      </c>
+      <c r="AP85">
+        <v>1.33</v>
+      </c>
+      <c r="AQ85">
+        <v>0.89</v>
+      </c>
+      <c r="AR85">
+        <v>1.36</v>
+      </c>
+      <c r="AS85">
+        <v>1.24</v>
+      </c>
+      <c r="AT85">
+        <v>2.6</v>
+      </c>
+      <c r="AU85">
+        <v>7</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>14</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>5</v>
+      </c>
+      <c r="BD85">
+        <v>1.8</v>
+      </c>
+      <c r="BE85">
+        <v>6.3</v>
+      </c>
+      <c r="BF85">
+        <v>2.48</v>
+      </c>
+      <c r="BG85">
+        <v>1.21</v>
+      </c>
+      <c r="BH85">
+        <v>3.44</v>
+      </c>
+      <c r="BI85">
+        <v>1.41</v>
+      </c>
+      <c r="BJ85">
+        <v>2.45</v>
+      </c>
+      <c r="BK85">
+        <v>1.77</v>
+      </c>
+      <c r="BL85">
+        <v>1.9</v>
+      </c>
+      <c r="BM85">
+        <v>2.22</v>
+      </c>
+      <c r="BN85">
+        <v>1.5</v>
+      </c>
+      <c r="BO85">
+        <v>2.97</v>
+      </c>
+      <c r="BP85">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -623,6 +626,15 @@
   </si>
   <si>
     <t>['29', '53']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['33', '69', '79']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1255,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2">
         <v>0.75</v>
@@ -1449,7 +1461,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1527,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1655,7 +1667,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1736,7 +1748,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2148,7 +2160,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2273,7 +2285,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2351,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>1.22</v>
@@ -2479,7 +2491,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2891,7 +2903,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2972,7 +2984,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3303,7 +3315,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3509,7 +3521,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3715,7 +3727,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3921,7 +3933,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4127,7 +4139,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4333,7 +4345,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4411,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ17">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4539,7 +4551,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4620,7 +4632,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4745,7 +4757,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4823,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
         <v>1.13</v>
@@ -4951,7 +4963,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5032,7 +5044,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -5157,7 +5169,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5235,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ21">
         <v>0.89</v>
@@ -5569,7 +5581,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5981,7 +5993,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6187,7 +6199,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6268,7 +6280,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6393,7 +6405,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6471,7 +6483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
         <v>0.89</v>
@@ -6599,7 +6611,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7011,7 +7023,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7089,10 +7101,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ30">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7217,7 +7229,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7423,7 +7435,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7501,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7707,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
         <v>1.22</v>
@@ -7835,7 +7847,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8041,7 +8053,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8122,7 +8134,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.16</v>
@@ -8247,7 +8259,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8453,7 +8465,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8531,10 +8543,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8740,7 +8752,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -8865,7 +8877,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9071,7 +9083,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9483,7 +9495,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9561,7 +9573,7 @@
         <v>0.25</v>
       </c>
       <c r="AP42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ42">
         <v>1.22</v>
@@ -9689,7 +9701,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9767,7 +9779,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ43">
         <v>1.25</v>
@@ -9895,7 +9907,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9976,7 +9988,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10307,7 +10319,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10513,7 +10525,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10591,7 +10603,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>1.22</v>
@@ -10800,7 +10812,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -10925,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11006,7 +11018,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -11337,7 +11349,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11543,7 +11555,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11621,7 +11633,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -11749,7 +11761,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11955,7 +11967,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12033,10 +12045,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ54">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12161,7 +12173,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12239,7 +12251,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12448,7 +12460,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR56">
         <v>1.95</v>
@@ -12573,7 +12585,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12860,7 +12872,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ58">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
         <v>1.33</v>
@@ -12985,7 +12997,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13397,7 +13409,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13603,7 +13615,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13681,7 +13693,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -13887,7 +13899,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14015,7 +14027,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14093,7 +14105,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
         <v>0.89</v>
@@ -14302,7 +14314,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ65">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.81</v>
@@ -14427,7 +14439,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14508,7 +14520,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ66">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR66">
         <v>1.6</v>
@@ -14633,7 +14645,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14711,10 +14723,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -14839,7 +14851,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15045,7 +15057,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15251,7 +15263,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15332,7 +15344,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.4</v>
@@ -15457,7 +15469,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15663,7 +15675,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15869,7 +15881,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -15947,10 +15959,10 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR73">
         <v>1.6</v>
@@ -16075,7 +16087,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16281,7 +16293,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16359,7 +16371,7 @@
         <v>1.29</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
         <v>1.33</v>
@@ -16487,7 +16499,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16693,7 +16705,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16774,7 +16786,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -16899,7 +16911,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17105,7 +17117,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17186,7 +17198,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.35</v>
@@ -17517,7 +17529,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17723,7 +17735,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18341,7 +18353,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18498,6 +18510,624 @@
       </c>
       <c r="BP85">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7487421</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45639.64583333334</v>
+      </c>
+      <c r="F86">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q86">
+        <v>2.3</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1.31</v>
+      </c>
+      <c r="U86">
+        <v>3.26</v>
+      </c>
+      <c r="V86">
+        <v>2.45</v>
+      </c>
+      <c r="W86">
+        <v>1.48</v>
+      </c>
+      <c r="X86">
+        <v>6.2</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>1.8</v>
+      </c>
+      <c r="AA86">
+        <v>3.8</v>
+      </c>
+      <c r="AB86">
+        <v>3.9</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.21</v>
+      </c>
+      <c r="AF86">
+        <v>4.1</v>
+      </c>
+      <c r="AG86">
+        <v>1.67</v>
+      </c>
+      <c r="AH86">
+        <v>2.15</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.24</v>
+      </c>
+      <c r="AL86">
+        <v>1.23</v>
+      </c>
+      <c r="AM86">
+        <v>1.66</v>
+      </c>
+      <c r="AN86">
+        <v>0.71</v>
+      </c>
+      <c r="AO86">
+        <v>0.63</v>
+      </c>
+      <c r="AP86">
+        <v>0.63</v>
+      </c>
+      <c r="AQ86">
+        <v>0.89</v>
+      </c>
+      <c r="AR86">
+        <v>1.62</v>
+      </c>
+      <c r="AS86">
+        <v>1.37</v>
+      </c>
+      <c r="AT86">
+        <v>2.99</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>12</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>1</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>1.54</v>
+      </c>
+      <c r="BE86">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF86">
+        <v>2.83</v>
+      </c>
+      <c r="BG86">
+        <v>1.17</v>
+      </c>
+      <c r="BH86">
+        <v>3.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.35</v>
+      </c>
+      <c r="BJ86">
+        <v>2.65</v>
+      </c>
+      <c r="BK86">
+        <v>2.1</v>
+      </c>
+      <c r="BL86">
+        <v>2.03</v>
+      </c>
+      <c r="BM86">
+        <v>2.05</v>
+      </c>
+      <c r="BN86">
+        <v>1.59</v>
+      </c>
+      <c r="BO86">
+        <v>2.69</v>
+      </c>
+      <c r="BP86">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7487422</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45639.64583333334</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q87">
+        <v>3.1</v>
+      </c>
+      <c r="R87">
+        <v>2.25</v>
+      </c>
+      <c r="S87">
+        <v>2.88</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.12</v>
+      </c>
+      <c r="V87">
+        <v>2.5</v>
+      </c>
+      <c r="W87">
+        <v>1.47</v>
+      </c>
+      <c r="X87">
+        <v>5.65</v>
+      </c>
+      <c r="Y87">
+        <v>1.12</v>
+      </c>
+      <c r="Z87">
+        <v>2.7</v>
+      </c>
+      <c r="AA87">
+        <v>3.5</v>
+      </c>
+      <c r="AB87">
+        <v>2.38</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>4</v>
+      </c>
+      <c r="AG87">
+        <v>1.62</v>
+      </c>
+      <c r="AH87">
+        <v>2.25</v>
+      </c>
+      <c r="AI87">
+        <v>1.53</v>
+      </c>
+      <c r="AJ87">
+        <v>2.38</v>
+      </c>
+      <c r="AK87">
+        <v>1.52</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.32</v>
+      </c>
+      <c r="AN87">
+        <v>1.25</v>
+      </c>
+      <c r="AO87">
+        <v>1.88</v>
+      </c>
+      <c r="AP87">
+        <v>1.22</v>
+      </c>
+      <c r="AQ87">
+        <v>1.78</v>
+      </c>
+      <c r="AR87">
+        <v>1.73</v>
+      </c>
+      <c r="AS87">
+        <v>1.83</v>
+      </c>
+      <c r="AT87">
+        <v>3.56</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>8</v>
+      </c>
+      <c r="AX87">
+        <v>9</v>
+      </c>
+      <c r="AY87">
+        <v>14</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>4</v>
+      </c>
+      <c r="BB87">
+        <v>8</v>
+      </c>
+      <c r="BC87">
+        <v>12</v>
+      </c>
+      <c r="BD87">
+        <v>2.31</v>
+      </c>
+      <c r="BE87">
+        <v>8.1</v>
+      </c>
+      <c r="BF87">
+        <v>1.78</v>
+      </c>
+      <c r="BG87">
+        <v>1.21</v>
+      </c>
+      <c r="BH87">
+        <v>3.44</v>
+      </c>
+      <c r="BI87">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87">
+        <v>2.45</v>
+      </c>
+      <c r="BK87">
+        <v>1.77</v>
+      </c>
+      <c r="BL87">
+        <v>1.9</v>
+      </c>
+      <c r="BM87">
+        <v>2.2</v>
+      </c>
+      <c r="BN87">
+        <v>1.51</v>
+      </c>
+      <c r="BO87">
+        <v>2.94</v>
+      </c>
+      <c r="BP87">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7487420</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45639.67708333334</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>104</v>
+      </c>
+      <c r="P88" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q88">
+        <v>3.1</v>
+      </c>
+      <c r="R88">
+        <v>2.38</v>
+      </c>
+      <c r="S88">
+        <v>2.75</v>
+      </c>
+      <c r="T88">
+        <v>1.28</v>
+      </c>
+      <c r="U88">
+        <v>3.46</v>
+      </c>
+      <c r="V88">
+        <v>2.29</v>
+      </c>
+      <c r="W88">
+        <v>1.56</v>
+      </c>
+      <c r="X88">
+        <v>5.2</v>
+      </c>
+      <c r="Y88">
+        <v>1.14</v>
+      </c>
+      <c r="Z88">
+        <v>2.7</v>
+      </c>
+      <c r="AA88">
+        <v>3.6</v>
+      </c>
+      <c r="AB88">
+        <v>2.35</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>13</v>
+      </c>
+      <c r="AE88">
+        <v>1.17</v>
+      </c>
+      <c r="AF88">
+        <v>4.7</v>
+      </c>
+      <c r="AG88">
+        <v>1.53</v>
+      </c>
+      <c r="AH88">
+        <v>2.38</v>
+      </c>
+      <c r="AI88">
+        <v>1.5</v>
+      </c>
+      <c r="AJ88">
+        <v>2.5</v>
+      </c>
+      <c r="AK88">
+        <v>1.37</v>
+      </c>
+      <c r="AL88">
+        <v>1.23</v>
+      </c>
+      <c r="AM88">
+        <v>1.47</v>
+      </c>
+      <c r="AN88">
+        <v>1.63</v>
+      </c>
+      <c r="AO88">
+        <v>1.88</v>
+      </c>
+      <c r="AP88">
+        <v>1.44</v>
+      </c>
+      <c r="AQ88">
+        <v>2</v>
+      </c>
+      <c r="AR88">
+        <v>1.6</v>
+      </c>
+      <c r="AS88">
+        <v>1.79</v>
+      </c>
+      <c r="AT88">
+        <v>3.39</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>2</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>8</v>
+      </c>
+      <c r="AZ88">
+        <v>9</v>
+      </c>
+      <c r="BA88">
+        <v>6</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.99</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>2.04</v>
+      </c>
+      <c r="BG88">
+        <v>1.24</v>
+      </c>
+      <c r="BH88">
+        <v>3.22</v>
+      </c>
+      <c r="BI88">
+        <v>1.46</v>
+      </c>
+      <c r="BJ88">
+        <v>2.31</v>
+      </c>
+      <c r="BK88">
+        <v>1.84</v>
+      </c>
+      <c r="BL88">
+        <v>1.82</v>
+      </c>
+      <c r="BM88">
+        <v>2.34</v>
+      </c>
+      <c r="BN88">
+        <v>1.45</v>
+      </c>
+      <c r="BO88">
+        <v>3.14</v>
+      </c>
+      <c r="BP88">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['10', '58', '83']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -635,6 +638,12 @@
   </si>
   <si>
     <t>['33', '69', '79']</t>
+  </si>
+  <si>
+    <t>['41', '75']</t>
+  </si>
+  <si>
+    <t>['29', '78']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1264,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1461,7 +1470,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1542,7 +1551,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1667,7 +1676,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -2157,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ6">
         <v>0.89</v>
@@ -2285,7 +2294,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2491,7 +2500,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2572,7 +2581,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2903,7 +2912,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2981,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3315,7 +3324,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3521,7 +3530,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3727,7 +3736,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3933,7 +3942,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4014,7 +4023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -4139,7 +4148,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4217,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ16">
         <v>1.22</v>
@@ -4345,7 +4354,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4551,7 +4560,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4757,7 +4766,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4838,7 +4847,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ19">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4963,7 +4972,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5041,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
         <v>0.89</v>
@@ -5169,7 +5178,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5453,7 +5462,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5581,7 +5590,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5868,7 +5877,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5993,7 +6002,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6071,7 +6080,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6199,7 +6208,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6405,7 +6414,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6611,7 +6620,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7023,7 +7032,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7229,7 +7238,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7310,7 +7319,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7435,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7847,7 +7856,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7928,7 +7937,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR34">
         <v>1.62</v>
@@ -8053,7 +8062,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8131,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8259,7 +8268,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8340,7 +8349,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8465,7 +8474,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8749,7 +8758,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ38">
         <v>1.78</v>
@@ -8877,7 +8886,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9083,7 +9092,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9495,7 +9504,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9701,7 +9710,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9782,7 +9791,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -9907,7 +9916,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10319,7 +10328,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10397,10 +10406,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -10525,7 +10534,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10937,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11349,7 +11358,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11427,7 +11436,7 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ51">
         <v>0.75</v>
@@ -11555,7 +11564,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11636,7 +11645,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11761,7 +11770,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11967,7 +11976,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12173,7 +12182,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12254,7 +12263,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.41</v>
@@ -12457,7 +12466,7 @@
         <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ56">
         <v>1.78</v>
@@ -12585,7 +12594,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12997,7 +13006,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13281,7 +13290,7 @@
         <v>0.4</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -13409,7 +13418,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13615,7 +13624,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13902,7 +13911,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.59</v>
@@ -14027,7 +14036,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14439,7 +14448,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14645,7 +14654,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14851,7 +14860,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14929,7 +14938,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15057,7 +15066,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15138,7 +15147,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.92</v>
@@ -15263,7 +15272,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15469,7 +15478,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15547,7 +15556,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -15675,7 +15684,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15756,7 +15765,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.68</v>
@@ -15881,7 +15890,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>3.4</v>
@@ -16087,7 +16096,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16293,7 +16302,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16499,7 +16508,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16577,7 +16586,7 @@
         <v>1.43</v>
       </c>
       <c r="AP76">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16705,7 +16714,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16911,7 +16920,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16989,10 +16998,10 @@
         <v>1.43</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
         <v>1.71</v>
@@ -17117,7 +17126,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17529,7 +17538,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>3.6</v>
@@ -17735,7 +17744,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18353,7 +18362,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.63</v>
@@ -18559,7 +18568,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.3</v>
@@ -18652,19 +18661,19 @@
         <v>2.99</v>
       </c>
       <c r="AU86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV86">
         <v>4</v>
       </c>
       <c r="AW86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX86">
         <v>4</v>
       </c>
       <c r="AY86">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ86">
         <v>8</v>
@@ -18765,7 +18774,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -18861,19 +18870,19 @@
         <v>6</v>
       </c>
       <c r="AV87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX87">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA87">
         <v>4</v>
@@ -18971,7 +18980,7 @@
         <v>104</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -19064,22 +19073,22 @@
         <v>3.39</v>
       </c>
       <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
         <v>6</v>
       </c>
-      <c r="AV88">
-        <v>6</v>
-      </c>
-      <c r="AW88">
-        <v>2</v>
-      </c>
-      <c r="AX88">
-        <v>3</v>
-      </c>
       <c r="AY88">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AZ88">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA88">
         <v>6</v>
@@ -19128,6 +19137,418 @@
       </c>
       <c r="BP88">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7487423</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45640.58333333334</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>145</v>
+      </c>
+      <c r="P89" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q89">
+        <v>3.2</v>
+      </c>
+      <c r="R89">
+        <v>2.3</v>
+      </c>
+      <c r="S89">
+        <v>2.75</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.36</v>
+      </c>
+      <c r="W89">
+        <v>1.53</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>2.34</v>
+      </c>
+      <c r="AA89">
+        <v>3.5</v>
+      </c>
+      <c r="AB89">
+        <v>2.47</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.18</v>
+      </c>
+      <c r="AF89">
+        <v>4.5</v>
+      </c>
+      <c r="AG89">
+        <v>1.57</v>
+      </c>
+      <c r="AH89">
+        <v>2.25</v>
+      </c>
+      <c r="AI89">
+        <v>1.53</v>
+      </c>
+      <c r="AJ89">
+        <v>2.38</v>
+      </c>
+      <c r="AK89">
+        <v>1.37</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.45</v>
+      </c>
+      <c r="AN89">
+        <v>2.13</v>
+      </c>
+      <c r="AO89">
+        <v>1.25</v>
+      </c>
+      <c r="AP89">
+        <v>2.22</v>
+      </c>
+      <c r="AQ89">
+        <v>1.11</v>
+      </c>
+      <c r="AR89">
+        <v>1.97</v>
+      </c>
+      <c r="AS89">
+        <v>1.76</v>
+      </c>
+      <c r="AT89">
+        <v>3.73</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
+      <c r="AW89">
+        <v>8</v>
+      </c>
+      <c r="AX89">
+        <v>10</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>18</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>5</v>
+      </c>
+      <c r="BD89">
+        <v>2.4</v>
+      </c>
+      <c r="BE89">
+        <v>6.7</v>
+      </c>
+      <c r="BF89">
+        <v>1.81</v>
+      </c>
+      <c r="BG89">
+        <v>1.27</v>
+      </c>
+      <c r="BH89">
+        <v>3.14</v>
+      </c>
+      <c r="BI89">
+        <v>1.51</v>
+      </c>
+      <c r="BJ89">
+        <v>2.26</v>
+      </c>
+      <c r="BK89">
+        <v>1.91</v>
+      </c>
+      <c r="BL89">
+        <v>1.76</v>
+      </c>
+      <c r="BM89">
+        <v>2.46</v>
+      </c>
+      <c r="BN89">
+        <v>1.43</v>
+      </c>
+      <c r="BO89">
+        <v>3.42</v>
+      </c>
+      <c r="BP89">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7487424</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45640.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q90">
+        <v>2.6</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>4</v>
+      </c>
+      <c r="T90">
+        <v>1.38</v>
+      </c>
+      <c r="U90">
+        <v>2.9</v>
+      </c>
+      <c r="V90">
+        <v>2.75</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>6.3</v>
+      </c>
+      <c r="Y90">
+        <v>1.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.96</v>
+      </c>
+      <c r="AA90">
+        <v>3.3</v>
+      </c>
+      <c r="AB90">
+        <v>3.25</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>7.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.28</v>
+      </c>
+      <c r="AF90">
+        <v>3.45</v>
+      </c>
+      <c r="AG90">
+        <v>1.91</v>
+      </c>
+      <c r="AH90">
+        <v>1.91</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.91</v>
+      </c>
+      <c r="AK90">
+        <v>1.26</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.6</v>
+      </c>
+      <c r="AN90">
+        <v>1.38</v>
+      </c>
+      <c r="AO90">
+        <v>1.13</v>
+      </c>
+      <c r="AP90">
+        <v>1.22</v>
+      </c>
+      <c r="AQ90">
+        <v>1.33</v>
+      </c>
+      <c r="AR90">
+        <v>1.61</v>
+      </c>
+      <c r="AS90">
+        <v>1.57</v>
+      </c>
+      <c r="AT90">
+        <v>3.18</v>
+      </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>13</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>1.59</v>
+      </c>
+      <c r="BE90">
+        <v>6.65</v>
+      </c>
+      <c r="BF90">
+        <v>2.95</v>
+      </c>
+      <c r="BG90">
+        <v>1.5</v>
+      </c>
+      <c r="BH90">
+        <v>2.28</v>
+      </c>
+      <c r="BI90">
+        <v>1.91</v>
+      </c>
+      <c r="BJ90">
+        <v>1.76</v>
+      </c>
+      <c r="BK90">
+        <v>2.52</v>
+      </c>
+      <c r="BL90">
+        <v>1.41</v>
+      </c>
+      <c r="BM90">
+        <v>3.5</v>
+      </c>
+      <c r="BN90">
+        <v>1.22</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -19279,22 +19279,22 @@
         <v>3.73</v>
       </c>
       <c r="AU89">
+        <v>6</v>
+      </c>
+      <c r="AV89">
         <v>7</v>
       </c>
-      <c r="AV89">
-        <v>8</v>
-      </c>
       <c r="AW89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX89">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY89">
         <v>15</v>
       </c>
       <c r="AZ89">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA89">
         <v>3</v>
@@ -19485,7 +19485,7 @@
         <v>3.18</v>
       </c>
       <c r="AU90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV90">
         <v>5</v>
@@ -19494,10 +19494,10 @@
         <v>5</v>
       </c>
       <c r="AX90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ90">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -328,18 +328,18 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['21', '57']</t>
+  </si>
+  <si>
     <t>['2']</t>
   </si>
   <si>
-    <t>['21', '57']</t>
+    <t>['62']</t>
   </si>
   <si>
     <t>['5', '19']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['54', '70', '75']</t>
   </si>
   <si>
@@ -403,12 +403,12 @@
     <t>['3', '75']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['43', '73']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['21', '90+3']</t>
   </si>
   <si>
@@ -427,12 +427,12 @@
     <t>['63', '90+5']</t>
   </si>
   <si>
+    <t>['29', '86']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
-    <t>['29', '86']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -523,30 +523,30 @@
     <t>['28', '65']</t>
   </si>
   <si>
+    <t>['10', '25', '55', '76']</t>
+  </si>
+  <si>
     <t>['60', '74']</t>
   </si>
   <si>
-    <t>['10', '25', '55', '76']</t>
+    <t>['49', '90+3']</t>
   </si>
   <si>
     <t>['18', '38', '43', '63', '89']</t>
   </si>
   <si>
-    <t>['49', '90+3']</t>
-  </si>
-  <si>
     <t>['9', '65']</t>
   </si>
   <si>
     <t>['74']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['36', '88']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['14', '49']</t>
   </si>
   <si>
@@ -640,10 +640,10 @@
     <t>['33', '69', '79']</t>
   </si>
   <si>
+    <t>['29', '78']</t>
+  </si>
+  <si>
     <t>['41', '75']</t>
-  </si>
-  <si>
-    <t>['29', '78']</t>
   </si>
 </sst>
 </file>
@@ -7402,7 +7402,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7463344</v>
+        <v>7463345</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7417,70 +7417,70 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="Q32">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R32">
         <v>2.25</v>
       </c>
       <c r="S32">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T32">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="U32">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="V32">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="W32">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X32">
-        <v>5.8</v>
+        <v>5.25</v>
       </c>
       <c r="Y32">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z32">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB32">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="AC32">
         <v>1.01</v>
@@ -7492,7 +7492,7 @@
         <v>1.18</v>
       </c>
       <c r="AF32">
-        <v>4.05</v>
+        <v>4.33</v>
       </c>
       <c r="AG32">
         <v>1.73</v>
@@ -7501,100 +7501,100 @@
         <v>2.08</v>
       </c>
       <c r="AI32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ32">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK32">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AL32">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AM32">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AN32">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.63</v>
+        <v>1.22</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AR32">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AS32">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>2.64</v>
       </c>
       <c r="AU32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
         <v>6</v>
       </c>
-      <c r="AW32">
+      <c r="AX32">
+        <v>2</v>
+      </c>
+      <c r="AY32">
+        <v>15</v>
+      </c>
+      <c r="AZ32">
         <v>7</v>
       </c>
-      <c r="AX32">
-        <v>6</v>
-      </c>
-      <c r="AY32">
-        <v>20</v>
-      </c>
-      <c r="AZ32">
-        <v>16</v>
-      </c>
       <c r="BA32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD32">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BF32">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BG32">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BH32">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BI32">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="BJ32">
-        <v>2.53</v>
+        <v>1.7</v>
       </c>
       <c r="BK32">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="BL32">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="BM32">
-        <v>2.29</v>
+        <v>3.66</v>
       </c>
       <c r="BN32">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="BO32">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7463345</v>
+        <v>7463346</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7623,43 +7623,43 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="Q33">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R33">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S33">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="T33">
         <v>1.29</v>
@@ -7680,13 +7680,13 @@
         <v>1.12</v>
       </c>
       <c r="Z33">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA33">
         <v>3.4</v>
       </c>
       <c r="AB33">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AC33">
         <v>1.01</v>
@@ -7701,112 +7701,112 @@
         <v>4.33</v>
       </c>
       <c r="AG33">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AH33">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AI33">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ33">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK33">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AL33">
         <v>1.27</v>
       </c>
       <c r="AM33">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AR33">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AS33">
+        <v>1.68</v>
+      </c>
+      <c r="AT33">
+        <v>3.3</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>7</v>
+      </c>
+      <c r="AW33">
+        <v>3</v>
+      </c>
+      <c r="AX33">
+        <v>11</v>
+      </c>
+      <c r="AY33">
+        <v>7</v>
+      </c>
+      <c r="AZ33">
+        <v>25</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
+        <v>6</v>
+      </c>
+      <c r="BC33">
+        <v>8</v>
+      </c>
+      <c r="BD33">
+        <v>2.18</v>
+      </c>
+      <c r="BE33">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF33">
+        <v>1.86</v>
+      </c>
+      <c r="BG33">
         <v>1.21</v>
       </c>
-      <c r="AT33">
-        <v>2.64</v>
-      </c>
-      <c r="AU33">
-        <v>4</v>
-      </c>
-      <c r="AV33">
-        <v>5</v>
-      </c>
-      <c r="AW33">
-        <v>6</v>
-      </c>
-      <c r="AX33">
-        <v>2</v>
-      </c>
-      <c r="AY33">
-        <v>15</v>
-      </c>
-      <c r="AZ33">
-        <v>7</v>
-      </c>
-      <c r="BA33">
-        <v>2</v>
-      </c>
-      <c r="BB33">
-        <v>2</v>
-      </c>
-      <c r="BC33">
-        <v>4</v>
-      </c>
-      <c r="BD33">
-        <v>1.8</v>
-      </c>
-      <c r="BE33">
-        <v>7.4</v>
-      </c>
-      <c r="BF33">
-        <v>2.34</v>
-      </c>
-      <c r="BG33">
-        <v>1.53</v>
-      </c>
       <c r="BH33">
-        <v>2.16</v>
+        <v>3.44</v>
       </c>
       <c r="BI33">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="BJ33">
-        <v>1.7</v>
+        <v>2.52</v>
       </c>
       <c r="BK33">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="BL33">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="BM33">
-        <v>3.66</v>
+        <v>2.29</v>
       </c>
       <c r="BN33">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="BO33">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="BP33">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7814,7 +7814,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7463346</v>
+        <v>7463344</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7829,28 +7829,28 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
         <v>3</v>
-      </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-      <c r="N34">
-        <v>6</v>
       </c>
       <c r="O34" t="s">
         <v>105</v>
@@ -7862,37 +7862,37 @@
         <v>3.2</v>
       </c>
       <c r="R34">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S34">
         <v>2.88</v>
       </c>
       <c r="T34">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="U34">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="V34">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="W34">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X34">
-        <v>5.25</v>
+        <v>5.8</v>
       </c>
       <c r="Y34">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z34">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AA34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB34">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AC34">
         <v>1.01</v>
@@ -7904,115 +7904,115 @@
         <v>1.18</v>
       </c>
       <c r="AF34">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="AG34">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AH34">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AI34">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ34">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK34">
+        <v>1.48</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
         <v>1.45</v>
       </c>
-      <c r="AL34">
-        <v>1.27</v>
-      </c>
-      <c r="AM34">
-        <v>1.48</v>
-      </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>0.63</v>
+      </c>
+      <c r="AQ34">
         <v>1.33</v>
       </c>
-      <c r="AP34">
-        <v>1.11</v>
-      </c>
-      <c r="AQ34">
-        <v>1.11</v>
-      </c>
       <c r="AR34">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AS34">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
         <v>7</v>
       </c>
-      <c r="AW34">
-        <v>3</v>
-      </c>
       <c r="AX34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY34">
+        <v>20</v>
+      </c>
+      <c r="AZ34">
+        <v>16</v>
+      </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
+      <c r="BB34">
         <v>7</v>
       </c>
-      <c r="AZ34">
-        <v>25</v>
-      </c>
-      <c r="BA34">
-        <v>2</v>
-      </c>
-      <c r="BB34">
-        <v>6</v>
-      </c>
       <c r="BC34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD34">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="BE34">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BF34">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="BG34">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BH34">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="BI34">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BJ34">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="BK34">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="BL34">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="BM34">
         <v>2.29</v>
       </c>
       <c r="BN34">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="BO34">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="BP34">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8020,7 +8020,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7463348</v>
+        <v>7463347</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8035,28 +8035,28 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
         <v>3</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-      <c r="M35">
-        <v>5</v>
-      </c>
-      <c r="N35">
-        <v>7</v>
       </c>
       <c r="O35" t="s">
         <v>106</v>
@@ -8065,160 +8065,160 @@
         <v>171</v>
       </c>
       <c r="Q35">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R35">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S35">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T35">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="U35">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="W35">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="X35">
-        <v>4.25</v>
+        <v>5.8</v>
       </c>
       <c r="Y35">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AA35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB35">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AC35">
         <v>1.01</v>
       </c>
       <c r="AD35">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE35">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AF35">
-        <v>5.9</v>
+        <v>4.05</v>
       </c>
       <c r="AG35">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AH35">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AI35">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ35">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK35">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AL35">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AM35">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AN35">
         <v>2.33</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="AS35">
-        <v>0.97</v>
+        <v>1.69</v>
       </c>
       <c r="AT35">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="AU35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AW35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY35">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ35">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BA35">
         <v>6</v>
       </c>
       <c r="BB35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BC35">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BD35">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BE35">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="BF35">
-        <v>3.12</v>
+        <v>3.64</v>
       </c>
       <c r="BG35">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BH35">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="BI35">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BJ35">
-        <v>2.58</v>
+        <v>2.41</v>
       </c>
       <c r="BK35">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="BL35">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="BM35">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="BN35">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BO35">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8226,7 +8226,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7463347</v>
+        <v>7463348</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8241,28 +8241,28 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O36" t="s">
         <v>107</v>
@@ -8271,160 +8271,160 @@
         <v>172</v>
       </c>
       <c r="Q36">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R36">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S36">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T36">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="U36">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="V36">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="X36">
-        <v>5.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y36">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Z36">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AA36">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB36">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AC36">
         <v>1.01</v>
       </c>
       <c r="AD36">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AF36">
-        <v>4.05</v>
+        <v>5.9</v>
       </c>
       <c r="AG36">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AH36">
+        <v>2.35</v>
+      </c>
+      <c r="AI36">
+        <v>1.5</v>
+      </c>
+      <c r="AJ36">
+        <v>2.5</v>
+      </c>
+      <c r="AK36">
+        <v>1.17</v>
+      </c>
+      <c r="AL36">
+        <v>1.17</v>
+      </c>
+      <c r="AM36">
         <v>2.15</v>
-      </c>
-      <c r="AI36">
-        <v>1.67</v>
-      </c>
-      <c r="AJ36">
-        <v>2.1</v>
-      </c>
-      <c r="AK36">
-        <v>1.12</v>
-      </c>
-      <c r="AL36">
-        <v>1.19</v>
-      </c>
-      <c r="AM36">
-        <v>2.3</v>
       </c>
       <c r="AN36">
         <v>2.33</v>
       </c>
       <c r="AO36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="AS36">
-        <v>1.69</v>
+        <v>0.97</v>
       </c>
       <c r="AT36">
-        <v>3.32</v>
+        <v>3.13</v>
       </c>
       <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>12</v>
+      </c>
+      <c r="AW36">
         <v>6</v>
       </c>
-      <c r="AV36">
-        <v>6</v>
-      </c>
-      <c r="AW36">
-        <v>10</v>
-      </c>
       <c r="AX36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AY36">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AZ36">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA36">
         <v>6</v>
       </c>
       <c r="BB36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BC36">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BD36">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BE36">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="BF36">
-        <v>3.64</v>
+        <v>3.12</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BI36">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BJ36">
-        <v>2.41</v>
+        <v>2.58</v>
       </c>
       <c r="BK36">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="BL36">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="BM36">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="BN36">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BO36">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BP36">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -9462,7 +9462,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7463354</v>
+        <v>7463355</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9477,31 +9477,31 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O42" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="P42" t="s">
         <v>175</v>
@@ -9516,22 +9516,22 @@
         <v>3.1</v>
       </c>
       <c r="T42">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U42">
         <v>3.2</v>
       </c>
       <c r="V42">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="W42">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="X42">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z42">
         <v>2.55</v>
@@ -9543,22 +9543,22 @@
         <v>2.7</v>
       </c>
       <c r="AC42">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD42">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AE42">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF42">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="AG42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI42">
         <v>1.62</v>
@@ -9570,97 +9570,97 @@
         <v>1.35</v>
       </c>
       <c r="AL42">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM42">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AN42">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO42">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AP42">
-        <v>0.63</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AS42">
-        <v>1.18</v>
+        <v>1.77</v>
       </c>
       <c r="AT42">
-        <v>2.82</v>
+        <v>3.13</v>
       </c>
       <c r="AU42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV42">
         <v>3</v>
       </c>
       <c r="AW42">
+        <v>3</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
         <v>11</v>
       </c>
-      <c r="AX42">
-        <v>3</v>
-      </c>
-      <c r="AY42">
-        <v>18</v>
-      </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA42">
         <v>3</v>
       </c>
       <c r="BB42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD42">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="BE42">
-        <v>6.05</v>
+        <v>7.1</v>
       </c>
       <c r="BF42">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="BG42">
+        <v>1.36</v>
+      </c>
+      <c r="BH42">
+        <v>2.6</v>
+      </c>
+      <c r="BI42">
+        <v>1.71</v>
+      </c>
+      <c r="BJ42">
+        <v>1.97</v>
+      </c>
+      <c r="BK42">
+        <v>2.16</v>
+      </c>
+      <c r="BL42">
+        <v>1.53</v>
+      </c>
+      <c r="BM42">
+        <v>2.92</v>
+      </c>
+      <c r="BN42">
         <v>1.29</v>
       </c>
-      <c r="BH42">
-        <v>2.92</v>
-      </c>
-      <c r="BI42">
-        <v>1.64</v>
-      </c>
-      <c r="BJ42">
-        <v>2.21</v>
-      </c>
-      <c r="BK42">
-        <v>2.04</v>
-      </c>
-      <c r="BL42">
-        <v>1.76</v>
-      </c>
-      <c r="BM42">
-        <v>2.58</v>
-      </c>
-      <c r="BN42">
-        <v>1.37</v>
-      </c>
       <c r="BO42">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="BP42">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9668,7 +9668,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7463355</v>
+        <v>7463354</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9683,31 +9683,31 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="P43" t="s">
         <v>176</v>
@@ -9722,22 +9722,22 @@
         <v>3.1</v>
       </c>
       <c r="T43">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U43">
         <v>3.2</v>
       </c>
       <c r="V43">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="W43">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="X43">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="Y43">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
         <v>2.55</v>
@@ -9749,22 +9749,22 @@
         <v>2.7</v>
       </c>
       <c r="AC43">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD43">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AE43">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF43">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AG43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AI43">
         <v>1.62</v>
@@ -9776,97 +9776,97 @@
         <v>1.35</v>
       </c>
       <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.52</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>0.25</v>
+      </c>
+      <c r="AP43">
+        <v>0.63</v>
+      </c>
+      <c r="AQ43">
         <v>1.22</v>
       </c>
-      <c r="AM43">
-        <v>1.63</v>
-      </c>
-      <c r="AN43">
-        <v>0.67</v>
-      </c>
-      <c r="AO43">
-        <v>1.75</v>
-      </c>
-      <c r="AP43">
-        <v>1.22</v>
-      </c>
-      <c r="AQ43">
-        <v>1.11</v>
-      </c>
       <c r="AR43">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AS43">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="AT43">
-        <v>3.13</v>
+        <v>2.82</v>
       </c>
       <c r="AU43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV43">
         <v>3</v>
       </c>
       <c r="AW43">
+        <v>11</v>
+      </c>
+      <c r="AX43">
         <v>3</v>
       </c>
-      <c r="AX43">
-        <v>6</v>
-      </c>
       <c r="AY43">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ43">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA43">
         <v>3</v>
       </c>
       <c r="BB43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD43">
+        <v>2.14</v>
+      </c>
+      <c r="BE43">
+        <v>6.05</v>
+      </c>
+      <c r="BF43">
+        <v>2.06</v>
+      </c>
+      <c r="BG43">
+        <v>1.29</v>
+      </c>
+      <c r="BH43">
+        <v>2.92</v>
+      </c>
+      <c r="BI43">
+        <v>1.64</v>
+      </c>
+      <c r="BJ43">
+        <v>2.21</v>
+      </c>
+      <c r="BK43">
         <v>2.04</v>
       </c>
-      <c r="BE43">
-        <v>7.1</v>
-      </c>
-      <c r="BF43">
-        <v>2.17</v>
-      </c>
-      <c r="BG43">
-        <v>1.36</v>
-      </c>
-      <c r="BH43">
-        <v>2.6</v>
-      </c>
-      <c r="BI43">
-        <v>1.71</v>
-      </c>
-      <c r="BJ43">
-        <v>1.97</v>
-      </c>
-      <c r="BK43">
-        <v>2.16</v>
-      </c>
       <c r="BL43">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="BM43">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="BN43">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BO43">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="BP43">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -12179,7 +12179,7 @@
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P55" t="s">
         <v>184</v>
@@ -15024,7 +15024,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7487402</v>
+        <v>7487400</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15039,49 +15039,49 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="Q69">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R69">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S69">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="T69">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U69">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="V69">
         <v>2.48</v>
@@ -15090,37 +15090,37 @@
         <v>1.5</v>
       </c>
       <c r="X69">
-        <v>6.15</v>
+        <v>5.65</v>
       </c>
       <c r="Y69">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z69">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="AA69">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB69">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="AC69">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AD69">
-        <v>11</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE69">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AF69">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AG69">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AH69">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AI69">
         <v>1.67</v>
@@ -15129,100 +15129,100 @@
         <v>2.1</v>
       </c>
       <c r="AK69">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.4</v>
+      </c>
+      <c r="AN69">
+        <v>1.83</v>
+      </c>
+      <c r="AO69">
+        <v>1.83</v>
+      </c>
+      <c r="AP69">
+        <v>1.33</v>
+      </c>
+      <c r="AQ69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>1.4</v>
+      </c>
+      <c r="AS69">
+        <v>1.81</v>
+      </c>
+      <c r="AT69">
+        <v>3.21</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>9</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>11</v>
+      </c>
+      <c r="AZ69">
+        <v>14</v>
+      </c>
+      <c r="BA69">
+        <v>6</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>2.03</v>
+      </c>
+      <c r="BE69">
+        <v>6.15</v>
+      </c>
+      <c r="BF69">
+        <v>2.16</v>
+      </c>
+      <c r="BG69">
+        <v>1.28</v>
+      </c>
+      <c r="BH69">
+        <v>2.97</v>
+      </c>
+      <c r="BI69">
+        <v>1.54</v>
+      </c>
+      <c r="BJ69">
+        <v>2.39</v>
+      </c>
+      <c r="BK69">
+        <v>1.93</v>
+      </c>
+      <c r="BL69">
+        <v>1.86</v>
+      </c>
+      <c r="BM69">
+        <v>2.4</v>
+      </c>
+      <c r="BN69">
+        <v>1.53</v>
+      </c>
+      <c r="BO69">
+        <v>3.44</v>
+      </c>
+      <c r="BP69">
         <v>1.21</v>
-      </c>
-      <c r="AM69">
-        <v>2.02</v>
-      </c>
-      <c r="AN69">
-        <v>2.17</v>
-      </c>
-      <c r="AO69">
-        <v>1.67</v>
-      </c>
-      <c r="AP69">
-        <v>1.89</v>
-      </c>
-      <c r="AQ69">
-        <v>1.11</v>
-      </c>
-      <c r="AR69">
-        <v>1.92</v>
-      </c>
-      <c r="AS69">
-        <v>1.72</v>
-      </c>
-      <c r="AT69">
-        <v>3.64</v>
-      </c>
-      <c r="AU69">
-        <v>6</v>
-      </c>
-      <c r="AV69">
-        <v>7</v>
-      </c>
-      <c r="AW69">
-        <v>8</v>
-      </c>
-      <c r="AX69">
-        <v>8</v>
-      </c>
-      <c r="AY69">
-        <v>17</v>
-      </c>
-      <c r="AZ69">
-        <v>18</v>
-      </c>
-      <c r="BA69">
-        <v>10</v>
-      </c>
-      <c r="BB69">
-        <v>4</v>
-      </c>
-      <c r="BC69">
-        <v>14</v>
-      </c>
-      <c r="BD69">
-        <v>1.42</v>
-      </c>
-      <c r="BE69">
-        <v>6.9</v>
-      </c>
-      <c r="BF69">
-        <v>3.72</v>
-      </c>
-      <c r="BG69">
-        <v>1.3</v>
-      </c>
-      <c r="BH69">
-        <v>2.88</v>
-      </c>
-      <c r="BI69">
-        <v>1.64</v>
-      </c>
-      <c r="BJ69">
-        <v>2.21</v>
-      </c>
-      <c r="BK69">
-        <v>2.06</v>
-      </c>
-      <c r="BL69">
-        <v>1.74</v>
-      </c>
-      <c r="BM69">
-        <v>2.61</v>
-      </c>
-      <c r="BN69">
-        <v>1.36</v>
-      </c>
-      <c r="BO69">
-        <v>3.62</v>
-      </c>
-      <c r="BP69">
-        <v>1.19</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15230,7 +15230,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7487400</v>
+        <v>7487402</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15245,49 +15245,49 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
         <v>3</v>
-      </c>
-      <c r="K70">
-        <v>3</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>4</v>
-      </c>
-      <c r="N70">
-        <v>5</v>
       </c>
       <c r="O70" t="s">
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="Q70">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="R70">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S70">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="T70">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U70">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="V70">
         <v>2.48</v>
@@ -15296,37 +15296,37 @@
         <v>1.5</v>
       </c>
       <c r="X70">
-        <v>5.65</v>
+        <v>6.15</v>
       </c>
       <c r="Y70">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="AA70">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB70">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD70">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE70">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AF70">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AG70">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AH70">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AI70">
         <v>1.67</v>
@@ -15335,100 +15335,100 @@
         <v>2.1</v>
       </c>
       <c r="AK70">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AL70">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AM70">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="AN70">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AO70">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="AS70">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="AT70">
-        <v>3.21</v>
+        <v>3.64</v>
       </c>
       <c r="AU70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY70">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ70">
+        <v>18</v>
+      </c>
+      <c r="BA70">
+        <v>10</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
         <v>14</v>
       </c>
-      <c r="BA70">
-        <v>6</v>
-      </c>
-      <c r="BB70">
-        <v>0</v>
-      </c>
-      <c r="BC70">
-        <v>6</v>
-      </c>
       <c r="BD70">
-        <v>2.03</v>
+        <v>1.42</v>
       </c>
       <c r="BE70">
-        <v>6.15</v>
+        <v>6.9</v>
       </c>
       <c r="BF70">
-        <v>2.16</v>
+        <v>3.72</v>
       </c>
       <c r="BG70">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH70">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="BI70">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="BJ70">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="BK70">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="BL70">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="BM70">
-        <v>2.4</v>
+        <v>2.61</v>
       </c>
       <c r="BN70">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="BO70">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="BP70">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -16672,7 +16672,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7487412</v>
+        <v>7487414</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16687,151 +16687,151 @@
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O77" t="s">
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="Q77">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S77">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="T77">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="U77">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="V77">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="W77">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="X77">
-        <v>4.95</v>
+        <v>6.25</v>
       </c>
       <c r="Y77">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Z77">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="AA77">
-        <v>3.22</v>
+        <v>3.09</v>
       </c>
       <c r="AB77">
-        <v>3.08</v>
+        <v>2.45</v>
       </c>
       <c r="AC77">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD77">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE77">
+        <v>1.24</v>
+      </c>
+      <c r="AF77">
+        <v>3.85</v>
+      </c>
+      <c r="AG77">
+        <v>1.75</v>
+      </c>
+      <c r="AH77">
+        <v>1.95</v>
+      </c>
+      <c r="AI77">
+        <v>1.67</v>
+      </c>
+      <c r="AJ77">
+        <v>2.1</v>
+      </c>
+      <c r="AK77">
+        <v>1.39</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.43</v>
+      </c>
+      <c r="AN77">
         <v>1.14</v>
       </c>
-      <c r="AF77">
-        <v>4.15</v>
-      </c>
-      <c r="AG77">
-        <v>1.53</v>
-      </c>
-      <c r="AH77">
-        <v>2.35</v>
-      </c>
-      <c r="AI77">
-        <v>1.53</v>
-      </c>
-      <c r="AJ77">
-        <v>2.38</v>
-      </c>
-      <c r="AK77">
+      <c r="AO77">
+        <v>1.43</v>
+      </c>
+      <c r="AP77">
         <v>1.22</v>
       </c>
-      <c r="AL77">
-        <v>1.21</v>
-      </c>
-      <c r="AM77">
-        <v>1.73</v>
-      </c>
-      <c r="AN77">
-        <v>2.29</v>
-      </c>
-      <c r="AO77">
-        <v>2</v>
-      </c>
-      <c r="AP77">
-        <v>1.89</v>
-      </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AS77">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AT77">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="AU77">
         <v>4</v>
       </c>
       <c r="AV77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY77">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ77">
         <v>18</v>
       </c>
       <c r="BA77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD77">
         <v>0</v>
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="BK77">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BL77">
         <v>0</v>
@@ -16878,7 +16878,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7487414</v>
+        <v>7487412</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16893,151 +16893,151 @@
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S78">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T78">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="U78">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="V78">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="W78">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="X78">
-        <v>6.25</v>
+        <v>4.95</v>
       </c>
       <c r="Y78">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z78">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="AA78">
-        <v>3.09</v>
+        <v>3.22</v>
       </c>
       <c r="AB78">
-        <v>2.45</v>
+        <v>3.08</v>
       </c>
       <c r="AC78">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD78">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE78">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AF78">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="AG78">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AH78">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AI78">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ78">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK78">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AL78">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AM78">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AN78">
-        <v>1.14</v>
+        <v>2.29</v>
       </c>
       <c r="AO78">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="AR78">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AS78">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT78">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="AU78">
         <v>4</v>
       </c>
       <c r="AV78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX78">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY78">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ78">
         <v>18</v>
       </c>
       <c r="BA78">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="BK78">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BL78">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>4</v>
       </c>
       <c r="O88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P88" t="s">
         <v>207</v>
@@ -19144,7 +19144,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7487423</v>
+        <v>7487424</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19159,190 +19159,190 @@
         <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>2</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="P89" t="s">
         <v>208</v>
       </c>
       <c r="Q89">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R89">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>1.38</v>
+      </c>
+      <c r="U89">
+        <v>2.9</v>
+      </c>
+      <c r="V89">
         <v>2.75</v>
       </c>
-      <c r="T89">
-        <v>1.29</v>
-      </c>
-      <c r="U89">
-        <v>3.4</v>
-      </c>
-      <c r="V89">
-        <v>2.36</v>
-      </c>
       <c r="W89">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X89">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y89">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z89">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="AA89">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB89">
-        <v>2.47</v>
+        <v>3.25</v>
       </c>
       <c r="AC89">
         <v>1.01</v>
       </c>
       <c r="AD89">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AE89">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AF89">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="AG89">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AH89">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AI89">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ89">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AK89">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AL89">
         <v>1.25</v>
       </c>
       <c r="AM89">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AN89">
-        <v>2.13</v>
+        <v>1.38</v>
       </c>
       <c r="AO89">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP89">
-        <v>2.22</v>
+        <v>1.22</v>
       </c>
       <c r="AQ89">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
-        <v>1.97</v>
+        <v>1.61</v>
       </c>
       <c r="AS89">
+        <v>1.57</v>
+      </c>
+      <c r="AT89">
+        <v>3.18</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>12</v>
+      </c>
+      <c r="AZ89">
+        <v>8</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.59</v>
+      </c>
+      <c r="BE89">
+        <v>6.65</v>
+      </c>
+      <c r="BF89">
+        <v>2.95</v>
+      </c>
+      <c r="BG89">
+        <v>1.5</v>
+      </c>
+      <c r="BH89">
+        <v>2.28</v>
+      </c>
+      <c r="BI89">
+        <v>1.91</v>
+      </c>
+      <c r="BJ89">
         <v>1.76</v>
       </c>
-      <c r="AT89">
-        <v>3.73</v>
-      </c>
-      <c r="AU89">
-        <v>6</v>
-      </c>
-      <c r="AV89">
-        <v>7</v>
-      </c>
-      <c r="AW89">
-        <v>7</v>
-      </c>
-      <c r="AX89">
-        <v>4</v>
-      </c>
-      <c r="AY89">
-        <v>15</v>
-      </c>
-      <c r="AZ89">
-        <v>14</v>
-      </c>
-      <c r="BA89">
-        <v>3</v>
-      </c>
-      <c r="BB89">
-        <v>2</v>
-      </c>
-      <c r="BC89">
-        <v>5</v>
-      </c>
-      <c r="BD89">
-        <v>2.4</v>
-      </c>
-      <c r="BE89">
-        <v>6.7</v>
-      </c>
-      <c r="BF89">
-        <v>1.81</v>
-      </c>
-      <c r="BG89">
-        <v>1.27</v>
-      </c>
-      <c r="BH89">
-        <v>3.14</v>
-      </c>
-      <c r="BI89">
-        <v>1.51</v>
-      </c>
-      <c r="BJ89">
-        <v>2.26</v>
-      </c>
       <c r="BK89">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="BL89">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="BM89">
-        <v>2.46</v>
+        <v>3.5</v>
       </c>
       <c r="BN89">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="BO89">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="BP89">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19350,7 +19350,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7487424</v>
+        <v>7487423</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19365,190 +19365,190 @@
         <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M90">
         <v>2</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O90" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="P90" t="s">
         <v>209</v>
       </c>
       <c r="Q90">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="R90">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S90">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="U90">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="V90">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="W90">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X90">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y90">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z90">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="AA90">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB90">
-        <v>3.25</v>
+        <v>2.47</v>
       </c>
       <c r="AC90">
         <v>1.01</v>
       </c>
       <c r="AD90">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AE90">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AF90">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="AG90">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AH90">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AI90">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AJ90">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="AK90">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AL90">
         <v>1.25</v>
       </c>
       <c r="AM90">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AN90">
-        <v>1.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO90">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>2.22</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="AS90">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AT90">
-        <v>3.18</v>
+        <v>3.73</v>
       </c>
       <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
         <v>7</v>
       </c>
-      <c r="AV90">
+      <c r="AW90">
+        <v>7</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>15</v>
+      </c>
+      <c r="AZ90">
+        <v>14</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
         <v>5</v>
       </c>
-      <c r="AW90">
-        <v>5</v>
-      </c>
-      <c r="AX90">
-        <v>2</v>
-      </c>
-      <c r="AY90">
-        <v>12</v>
-      </c>
-      <c r="AZ90">
-        <v>8</v>
-      </c>
-      <c r="BA90">
-        <v>6</v>
-      </c>
-      <c r="BB90">
-        <v>3</v>
-      </c>
-      <c r="BC90">
-        <v>9</v>
-      </c>
       <c r="BD90">
-        <v>1.59</v>
+        <v>2.4</v>
       </c>
       <c r="BE90">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="BF90">
-        <v>2.95</v>
+        <v>1.81</v>
       </c>
       <c r="BG90">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="BH90">
-        <v>2.28</v>
+        <v>3.14</v>
       </c>
       <c r="BI90">
+        <v>1.51</v>
+      </c>
+      <c r="BJ90">
+        <v>2.26</v>
+      </c>
+      <c r="BK90">
         <v>1.91</v>
       </c>
-      <c r="BJ90">
+      <c r="BL90">
         <v>1.76</v>
       </c>
-      <c r="BK90">
-        <v>2.52</v>
-      </c>
-      <c r="BL90">
-        <v>1.41</v>
-      </c>
       <c r="BM90">
-        <v>3.5</v>
+        <v>2.46</v>
       </c>
       <c r="BN90">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="BO90">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="BP90">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
